--- a/data_year/zb/建筑业/按登记注册类型分建筑业企业总收入.xlsx
+++ b/data_year/zb/建筑业/按登记注册类型分建筑业企业总收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,590 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11352.3486</v>
+        <v>92626.8768</v>
       </c>
       <c r="C2" t="n">
-        <v>5096.4245</v>
+        <v>19093.2815</v>
       </c>
       <c r="D2" t="n">
-        <v>60.3707</v>
+        <v>506.5102</v>
       </c>
       <c r="E2" t="n">
-        <v>2.1323</v>
+        <v>192.8375</v>
       </c>
       <c r="F2" t="n">
-        <v>11506.8245</v>
+        <v>93636.5784</v>
       </c>
       <c r="G2" t="n">
-        <v>94.1052</v>
+        <v>503.1915</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2312</v>
+        <v>94.1147</v>
       </c>
       <c r="I2" t="n">
-        <v>3040.3571</v>
+        <v>3351.9478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14394.5746</v>
+        <v>110596.951</v>
       </c>
       <c r="C3" t="n">
-        <v>5548.5224</v>
+        <v>21941.14307</v>
       </c>
       <c r="D3" t="n">
-        <v>67.084</v>
+        <v>752.24087</v>
       </c>
       <c r="E3" t="n">
-        <v>2.2638</v>
+        <v>238.0564</v>
       </c>
       <c r="F3" t="n">
-        <v>14574.3354</v>
+        <v>112002.78653</v>
       </c>
       <c r="G3" t="n">
-        <v>112.6768</v>
+        <v>653.59466</v>
       </c>
       <c r="H3" t="n">
-        <v>7.9124</v>
+        <v>151.24622</v>
       </c>
       <c r="I3" t="n">
-        <v>2916.7335</v>
+        <v>3853.25296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17530.0232</v>
+        <v>128948.17109</v>
       </c>
       <c r="C4" t="n">
-        <v>5961.6444</v>
+        <v>23656.71018</v>
       </c>
       <c r="D4" t="n">
-        <v>90.0124</v>
+        <v>545.83926</v>
       </c>
       <c r="E4" t="n">
-        <v>4.1309</v>
+        <v>268.56694</v>
       </c>
       <c r="F4" t="n">
-        <v>17744.7777</v>
+        <v>130182.93133</v>
       </c>
       <c r="G4" t="n">
-        <v>124.7421</v>
+        <v>688.92098</v>
       </c>
       <c r="H4" t="n">
-        <v>10.1887</v>
+        <v>104.54828</v>
       </c>
       <c r="I4" t="n">
-        <v>2941.3338</v>
+        <v>4391.21648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21770.7103</v>
+        <v>164167.94974</v>
       </c>
       <c r="C5" t="n">
-        <v>6410.6255</v>
+        <v>22443.93951</v>
       </c>
       <c r="D5" t="n">
-        <v>135.0476</v>
+        <v>691.6328</v>
       </c>
       <c r="E5" t="n">
-        <v>3.7512</v>
+        <v>359.2032</v>
       </c>
       <c r="F5" t="n">
-        <v>22037.2689</v>
+        <v>165675.24609</v>
       </c>
       <c r="G5" t="n">
-        <v>131.511</v>
+        <v>815.66355</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8026</v>
+        <v>110.38903</v>
       </c>
       <c r="I5" t="n">
-        <v>2874.777</v>
+        <v>4003.38091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32716.98882</v>
+        <v>169268.46952</v>
       </c>
       <c r="C6" t="n">
-        <v>8985.33073</v>
+        <v>23352.0981</v>
       </c>
       <c r="D6" t="n">
-        <v>293.66883</v>
+        <v>596.34662</v>
       </c>
       <c r="E6" t="n">
-        <v>56.83038</v>
+        <v>319.24017</v>
       </c>
       <c r="F6" t="n">
-        <v>33198.49127</v>
+        <v>170705.38965</v>
       </c>
       <c r="G6" t="n">
-        <v>187.83362</v>
+        <v>840.5735100000001</v>
       </c>
       <c r="H6" t="n">
-        <v>29.14847</v>
+        <v>183.86136</v>
       </c>
       <c r="I6" t="n">
-        <v>2490.17176</v>
+        <v>3754.64193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39595.04221</v>
+        <v>180436.46288</v>
       </c>
       <c r="C7" t="n">
-        <v>9801.435649999999</v>
+        <v>24909.86764</v>
       </c>
       <c r="D7" t="n">
-        <v>317.01521</v>
+        <v>528.16682</v>
       </c>
       <c r="E7" t="n">
-        <v>110.94713</v>
+        <v>288.92155</v>
       </c>
       <c r="F7" t="n">
-        <v>40155.0152</v>
+        <v>181770.75039</v>
       </c>
       <c r="G7" t="n">
-        <v>242.9577</v>
+        <v>806.12069</v>
       </c>
       <c r="H7" t="n">
-        <v>37.73986</v>
+        <v>187.35941</v>
       </c>
       <c r="I7" t="n">
-        <v>2527.07801</v>
+        <v>3913.48036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48675.63925</v>
+        <v>192723.61066</v>
       </c>
       <c r="C8" t="n">
-        <v>11263.25481</v>
+        <v>26421.88432</v>
       </c>
       <c r="D8" t="n">
-        <v>462.48354</v>
+        <v>564.17612</v>
       </c>
       <c r="E8" t="n">
-        <v>158.21857</v>
+        <v>329.24353</v>
       </c>
       <c r="F8" t="n">
-        <v>49414.75466</v>
+        <v>194164.58296</v>
       </c>
       <c r="G8" t="n">
-        <v>276.63187</v>
+        <v>876.79618</v>
       </c>
       <c r="H8" t="n">
-        <v>51.91935</v>
+        <v>191.44392</v>
       </c>
       <c r="I8" t="n">
-        <v>2777.99767</v>
+        <v>3689.44031</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59925.10461</v>
+        <v>210457.32447</v>
       </c>
       <c r="C9" t="n">
-        <v>13211.57048</v>
+        <v>28653.73287</v>
       </c>
       <c r="D9" t="n">
-        <v>448.25517</v>
+        <v>781.82224</v>
       </c>
       <c r="E9" t="n">
-        <v>167.21301</v>
+        <v>493.53997</v>
       </c>
       <c r="F9" t="n">
-        <v>60736.44292</v>
+        <v>211991.70415</v>
       </c>
       <c r="G9" t="n">
-        <v>363.08314</v>
+        <v>752.55744</v>
       </c>
       <c r="H9" t="n">
-        <v>88.20731000000001</v>
+        <v>200.23335</v>
       </c>
       <c r="I9" t="n">
-        <v>2910.10656</v>
+        <v>3368.61599</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74637.70662</v>
+        <v>231003.39296</v>
       </c>
       <c r="C10" t="n">
-        <v>16382.57126</v>
+        <v>31677.62975</v>
       </c>
       <c r="D10" t="n">
-        <v>464.33817</v>
+        <v>804.90479</v>
       </c>
       <c r="E10" t="n">
-        <v>132.62354</v>
+        <v>534.16279</v>
       </c>
       <c r="F10" t="n">
-        <v>75478.19811</v>
+        <v>232616.2361</v>
       </c>
       <c r="G10" t="n">
-        <v>376.15332</v>
+        <v>807.93835</v>
       </c>
       <c r="H10" t="n">
-        <v>79.86023</v>
+        <v>209.92426</v>
       </c>
       <c r="I10" t="n">
-        <v>3025.31167</v>
+        <v>3221.59355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92626.8768</v>
+        <v>242509.99317</v>
       </c>
       <c r="C11" t="n">
-        <v>19093.2815</v>
+        <v>35242.81362</v>
       </c>
       <c r="D11" t="n">
-        <v>506.5102</v>
+        <v>1048.44192</v>
       </c>
       <c r="E11" t="n">
-        <v>192.8375</v>
+        <v>442.02068</v>
       </c>
       <c r="F11" t="n">
-        <v>93636.5784</v>
+        <v>244864.498</v>
       </c>
       <c r="G11" t="n">
-        <v>503.1915</v>
+        <v>1306.06292</v>
       </c>
       <c r="H11" t="n">
-        <v>94.1147</v>
+        <v>178.92776</v>
       </c>
       <c r="I11" t="n">
-        <v>3351.9478</v>
+        <v>3072.06336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110596.951</v>
+        <v>265358.23421</v>
       </c>
       <c r="C12" t="n">
-        <v>21941.14307</v>
+        <v>36744.31595</v>
       </c>
       <c r="D12" t="n">
-        <v>752.24087</v>
+        <v>1110.97262</v>
       </c>
       <c r="E12" t="n">
-        <v>238.0564</v>
+        <v>627.04846</v>
       </c>
       <c r="F12" t="n">
-        <v>112002.78653</v>
+        <v>267895.7369</v>
       </c>
       <c r="G12" t="n">
-        <v>653.59466</v>
+        <v>1426.53007</v>
       </c>
       <c r="H12" t="n">
-        <v>151.24622</v>
+        <v>197.53121</v>
       </c>
       <c r="I12" t="n">
-        <v>3853.25296</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>128948.17109</v>
-      </c>
-      <c r="C13" t="n">
-        <v>23656.71018</v>
-      </c>
-      <c r="D13" t="n">
-        <v>545.83926</v>
-      </c>
-      <c r="E13" t="n">
-        <v>268.56694</v>
-      </c>
-      <c r="F13" t="n">
-        <v>130182.93133</v>
-      </c>
-      <c r="G13" t="n">
-        <v>688.92098</v>
-      </c>
-      <c r="H13" t="n">
-        <v>104.54828</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4391.21648</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>164167.94974</v>
-      </c>
-      <c r="C14" t="n">
-        <v>22443.93951</v>
-      </c>
-      <c r="D14" t="n">
-        <v>691.6328</v>
-      </c>
-      <c r="E14" t="n">
-        <v>359.2032</v>
-      </c>
-      <c r="F14" t="n">
-        <v>165675.24609</v>
-      </c>
-      <c r="G14" t="n">
-        <v>815.66355</v>
-      </c>
-      <c r="H14" t="n">
-        <v>110.38903</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4003.38091</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>169268.46952</v>
-      </c>
-      <c r="C15" t="n">
-        <v>23352.0981</v>
-      </c>
-      <c r="D15" t="n">
-        <v>596.34662</v>
-      </c>
-      <c r="E15" t="n">
-        <v>319.24017</v>
-      </c>
-      <c r="F15" t="n">
-        <v>170705.38965</v>
-      </c>
-      <c r="G15" t="n">
-        <v>840.5735100000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>183.86136</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3754.64193</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>180436.46288</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24909.86764</v>
-      </c>
-      <c r="D16" t="n">
-        <v>528.16682</v>
-      </c>
-      <c r="E16" t="n">
-        <v>288.92155</v>
-      </c>
-      <c r="F16" t="n">
-        <v>181770.75039</v>
-      </c>
-      <c r="G16" t="n">
-        <v>806.12069</v>
-      </c>
-      <c r="H16" t="n">
-        <v>187.35941</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3913.48036</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>192723.61066</v>
-      </c>
-      <c r="C17" t="n">
-        <v>26421.88432</v>
-      </c>
-      <c r="D17" t="n">
-        <v>564.17612</v>
-      </c>
-      <c r="E17" t="n">
-        <v>329.24353</v>
-      </c>
-      <c r="F17" t="n">
-        <v>194164.58296</v>
-      </c>
-      <c r="G17" t="n">
-        <v>876.79618</v>
-      </c>
-      <c r="H17" t="n">
-        <v>191.44392</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3689.44031</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>210457.32447</v>
-      </c>
-      <c r="C18" t="n">
-        <v>28653.73287</v>
-      </c>
-      <c r="D18" t="n">
-        <v>781.82224</v>
-      </c>
-      <c r="E18" t="n">
-        <v>493.53997</v>
-      </c>
-      <c r="F18" t="n">
-        <v>211991.70415</v>
-      </c>
-      <c r="G18" t="n">
-        <v>752.55744</v>
-      </c>
-      <c r="H18" t="n">
-        <v>200.23335</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3368.61599</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>231003.39296</v>
-      </c>
-      <c r="C19" t="n">
-        <v>31677.62975</v>
-      </c>
-      <c r="D19" t="n">
-        <v>804.90479</v>
-      </c>
-      <c r="E19" t="n">
-        <v>534.16279</v>
-      </c>
-      <c r="F19" t="n">
-        <v>232616.2361</v>
-      </c>
-      <c r="G19" t="n">
-        <v>807.93835</v>
-      </c>
-      <c r="H19" t="n">
-        <v>209.92426</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3221.59355</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>242509.99317</v>
-      </c>
-      <c r="C20" t="n">
-        <v>35242.81362</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1048.44192</v>
-      </c>
-      <c r="E20" t="n">
-        <v>442.02068</v>
-      </c>
-      <c r="F20" t="n">
-        <v>244864.498</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1306.06292</v>
-      </c>
-      <c r="H20" t="n">
-        <v>178.92776</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3072.06336</v>
+        <v>2791.04742</v>
       </c>
     </row>
   </sheetData>
